--- a/src/test/java/com/guru99/testData/LoginData.xlsx
+++ b/src/test/java/com/guru99/testData/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\guru99_framework\src\test\java\com\guru99\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F19A384-7E4A-435B-B50E-D477297B0C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA60D2-2EA0-45B3-AFE3-8348017BB250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="8325" xr2:uid="{3442C655-AE3A-499C-930D-61B7CC154F2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>password</t>
   </si>
@@ -50,16 +50,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>mngr5599we</t>
-  </si>
-  <si>
-    <t>mngr559946123</t>
-  </si>
-  <si>
     <t>ajadYmy123</t>
   </si>
   <si>
-    <t>ajadYmy234</t>
+    <t>mngr566389</t>
+  </si>
+  <si>
+    <t>sYdUvEp</t>
   </si>
 </sst>
 </file>
@@ -453,15 +450,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -472,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
